--- a/Base_de_Dados_Noruega_1.xlsx
+++ b/Base_de_Dados_Noruega_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5784E9-D0F7-4F0B-9C11-75DA399BF2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD1CDA8-FBC1-4750-AF77-24610F3ED03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3100,10 +3100,20 @@
   <dimension ref="A1:J2649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -72116,31 +72126,31 @@
         <v>904</v>
       </c>
       <c r="B2158" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2158" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2158" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E2158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2158">
-        <v>2.83</v>
+        <v>5.3</v>
       </c>
       <c r="I2158">
-        <v>3.87</v>
+        <v>4.57</v>
       </c>
       <c r="J2158">
-        <v>2.37</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="2159" spans="1:10" x14ac:dyDescent="0.25">
@@ -72151,28 +72161,28 @@
         <v>769</v>
       </c>
       <c r="C2159" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D2159" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2159">
         <v>1</v>
       </c>
       <c r="F2159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2159" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2159">
-        <v>5.3</v>
+        <v>2.11</v>
       </c>
       <c r="I2159">
-        <v>4.57</v>
+        <v>3.62</v>
       </c>
       <c r="J2159">
-        <v>1.59</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="2160" spans="1:10" x14ac:dyDescent="0.25">
@@ -72183,28 +72193,28 @@
         <v>769</v>
       </c>
       <c r="C2160" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="D2160" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="E2160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2160" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2160">
-        <v>2.11</v>
+        <v>4.34</v>
       </c>
       <c r="I2160">
-        <v>3.62</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J2160">
-        <v>3.52</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="2161" spans="1:10" x14ac:dyDescent="0.25">
@@ -72212,31 +72222,31 @@
         <v>904</v>
       </c>
       <c r="B2161" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2161" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="D2161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E2161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2161">
         <v>0</v>
       </c>
       <c r="G2161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2161">
-        <v>1.44</v>
+        <v>2.19</v>
       </c>
       <c r="I2161">
-        <v>4.74</v>
+        <v>3.03</v>
       </c>
       <c r="J2161">
-        <v>7.61</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="2162" spans="1:10" x14ac:dyDescent="0.25">
@@ -72244,31 +72254,31 @@
         <v>904</v>
       </c>
       <c r="B2162" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C2162" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2162" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="E2162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2162" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2162">
-        <v>4.34</v>
+        <v>2.83</v>
       </c>
       <c r="I2162">
-        <v>4.4800000000000004</v>
+        <v>3.87</v>
       </c>
       <c r="J2162">
-        <v>1.71</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="2163" spans="1:10" x14ac:dyDescent="0.25">
@@ -72276,31 +72286,31 @@
         <v>904</v>
       </c>
       <c r="B2163" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C2163" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D2163" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E2163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2163">
         <v>0</v>
       </c>
       <c r="G2163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2163">
-        <v>2.19</v>
+        <v>1.44</v>
       </c>
       <c r="I2163">
-        <v>3.03</v>
+        <v>4.74</v>
       </c>
       <c r="J2163">
-        <v>4.05</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="2164" spans="1:10" x14ac:dyDescent="0.25">
@@ -87856,6 +87866,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2649">
+    <sortCondition ref="B2:B2649"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
